--- a/PythonResources/Data/Consumption/Sympheny/base_1569_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1569_hea.xlsx
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>3.288755274546019</v>
+        <v>3.288755274546018</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>4.763986961855633</v>
+        <v>4.763986961855632</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>15.48801310144772</v>
+        <v>15.48801310144771</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>8.464155360474448</v>
+        <v>8.464155360474447</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>7.53142747283085</v>
+        <v>7.531427472830849</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>1.954681253007642</v>
+        <v>1.954681253007641</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>5.868395863947046</v>
+        <v>5.868395863947045</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>3.525380831161189</v>
+        <v>3.525380831161188</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>2.991669162655013</v>
+        <v>2.991669162655012</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>0.8375999592045116</v>
+        <v>0.8375999592045115</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>3.745682330922922</v>
+        <v>3.745682330922921</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>12.45886015294792</v>
+        <v>12.45886015294791</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>3.747880363712882</v>
+        <v>3.747880363712881</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>23.42162196063353</v>
+        <v>23.42162196063352</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>13.14743055828275</v>
+        <v>13.14743055828274</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>7.693788828249235</v>
+        <v>7.693788828249234</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>6.386926452650564</v>
+        <v>6.386926452650563</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>8.473094027153619</v>
+        <v>8.473094027153618</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>11.16676855769778</v>
+        <v>11.16676855769777</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>24.96982833656982</v>
+        <v>24.96982833656981</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>32.68533372878386</v>
+        <v>32.68533372878385</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>31.93419265669483</v>
+        <v>31.93419265669482</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>42.6846244968703</v>
+        <v>42.68462449687029</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>38.8072946553807</v>
+        <v>38.80729465538069</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>34.43526090063075</v>
+        <v>34.43526090063074</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>33.79871060465831</v>
+        <v>33.7987106046583</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>8.597385454649896</v>
+        <v>8.597385454649894</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>15.46843595606514</v>
+        <v>15.46843595606513</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>21.58972281927306</v>
+        <v>21.58972281927305</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>489</v>
       </c>
       <c r="B489">
-        <v>38.52946331072975</v>
+        <v>38.52946331072974</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>31.59686789119563</v>
+        <v>31.59686789119562</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>49.95835460540623</v>
+        <v>49.95835460540622</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>34.9246895351952</v>
+        <v>34.92468953519519</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>41.08738733616597</v>
+        <v>41.08738733616596</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>48.69492535773717</v>
+        <v>48.69492535773716</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>46.46817160598827</v>
+        <v>46.46817160598826</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>37.17430282795969</v>
+        <v>37.17430282795968</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>42.60080617981316</v>
+        <v>42.60080617981315</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>33.90538846273104</v>
+        <v>33.90538846273103</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>33.0648607238503</v>
+        <v>33.06486072385029</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>19.60976418918088</v>
+        <v>19.60976418918087</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>5.566708536749058</v>
+        <v>5.566708536749057</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>5.311795347321419</v>
+        <v>5.311795347321418</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>8.915308917389723</v>
+        <v>8.915308917389721</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>24.61134384207926</v>
+        <v>24.61134384207925</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>45.15843713421072</v>
+        <v>45.15843713421071</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>37.54122776836369</v>
+        <v>37.54122776836368</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>29.03402027230989</v>
+        <v>29.03402027230988</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>35.69400101168123</v>
+        <v>35.69400101168122</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>35.89006553654567</v>
+        <v>35.89006553654566</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>8.928643649648814</v>
+        <v>8.928643649648812</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>24.67080795582365</v>
+        <v>24.67080795582364</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>14.62110896908746</v>
+        <v>14.62110896908745</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>33.82655235333114</v>
+        <v>33.82655235333113</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>24.14835021520207</v>
+        <v>24.14835021520206</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>777</v>
       </c>
       <c r="B777">
-        <v>30.34340305884105</v>
+        <v>30.34340305884104</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>24.90192377691199</v>
+        <v>24.90192377691198</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>787</v>
       </c>
       <c r="B787">
-        <v>30.07319156119529</v>
+        <v>30.07319156119528</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>37.32699283910225</v>
+        <v>37.32699283910224</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>46.30229339810595</v>
+        <v>46.30229339810594</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>40.90656250531192</v>
+        <v>40.90656250531191</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>21.94659542305098</v>
+        <v>21.94659542305097</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>25.75991854969694</v>
+        <v>25.75991854969693</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>30.36098732116073</v>
+        <v>30.36098732116072</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>31.04882504889891</v>
+        <v>31.0488250488989</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>51.01282420250975</v>
+        <v>51.01282420250974</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>46.60825956246839</v>
+        <v>46.60825956246838</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>68.88898527669717</v>
+        <v>68.88898527669716</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>31.66310194593309</v>
+        <v>31.66310194593308</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>46.24660990076029</v>
+        <v>46.24660990076028</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>46.88579783608069</v>
+        <v>46.88579783608068</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>31.20327348627344</v>
+        <v>31.20327348627343</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>15.67950571810904</v>
+        <v>15.67950571810903</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>15.63841715848872</v>
+        <v>15.63841715848871</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>45.62735079606887</v>
+        <v>45.62735079606886</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>926</v>
       </c>
       <c r="B926">
-        <v>6.550225635392666</v>
+        <v>6.550225635392665</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>4.639373156216829</v>
+        <v>4.639373156216828</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>4.794905956434405</v>
+        <v>4.794905956434404</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>0.7918339858071558</v>
+        <v>0.7918339858071557</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>17.65835067825431</v>
+        <v>17.6583506782543</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>20.20607583154512</v>
+        <v>20.20607583154511</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>5.475270372686718</v>
+        <v>5.475270372686717</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>9.228689779030301</v>
+        <v>9.228689779030296</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>4.057597837370192</v>
+        <v>4.057597837370191</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>23.43604105573567</v>
+        <v>23.43604105573566</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>22.81276687781459</v>
+        <v>22.81276687781458</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>17.42544712383014</v>
+        <v>17.42544712383013</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>25.97359664398493</v>
+        <v>25.97359664398492</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9647,7 +9647,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>19.8693665152271</v>
+        <v>19.86936651522709</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>8.290481462963735</v>
+        <v>8.290481462963733</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>2.352566217935831</v>
+        <v>2.35256621793583</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>6.234470898338933</v>
+        <v>6.234470898338932</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1452</v>
       </c>
       <c r="B1452">
-        <v>15.52916027527577</v>
+        <v>15.52916027527576</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>15.58375940977838</v>
+        <v>15.58375940977837</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>22.89092892382557</v>
+        <v>22.89092892382556</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>16.67993301568341</v>
+        <v>16.6799330156834</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>20.27453722617641</v>
+        <v>20.2745372261764</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>5.67215549645941</v>
+        <v>5.672155496459409</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12655,7 +12655,7 @@
         <v>1539</v>
       </c>
       <c r="B1539">
-        <v>3.451966535976522</v>
+        <v>3.451966535976521</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>7.935103521482987</v>
+        <v>7.935103521482986</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>13.56784096324245</v>
+        <v>13.56784096324244</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>20.15162323256184</v>
+        <v>20.15162323256183</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>19.26986039854145</v>
+        <v>19.26986039854144</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>25.48085630668361</v>
+        <v>25.4808563066836</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>14.37733247912895</v>
+        <v>14.37733247912894</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>5.42377779119392</v>
+        <v>5.423777791193919</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>7.440458222430369</v>
+        <v>7.440458222430368</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>6.132921783442777</v>
+        <v>6.132921783442776</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>23.56144615317886</v>
+        <v>23.56144615317885</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14695,7 +14695,7 @@
         <v>1794</v>
       </c>
       <c r="B1794">
-        <v>1.713278638462292</v>
+        <v>1.713278638462291</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>8.471980357206705</v>
+        <v>8.471980357206704</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>7.917783023098101</v>
+        <v>7.9177830230981</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>6.37634658815489</v>
+        <v>6.376346588154889</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>9.436711602272124</v>
+        <v>9.436711602272119</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>7.748475884063443</v>
+        <v>7.748475884063442</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>4.187545535912633</v>
+        <v>4.187545535912632</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>4.466549164718233</v>
+        <v>4.466549164718232</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>6.562856997158971</v>
+        <v>6.56285699715897</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>7.570640377803738</v>
+        <v>7.570640377803737</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>2.339978816825326</v>
+        <v>2.339978816825325</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16231,7 +16231,7 @@
         <v>1986</v>
       </c>
       <c r="B1986">
-        <v>3.663417290370683</v>
+        <v>3.663417290370682</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>13.88931058555008</v>
+        <v>13.88931058555007</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>9.942405679482274</v>
+        <v>9.942405679482272</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>5.668345572956812</v>
+        <v>5.668345572956811</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16743,7 +16743,7 @@
         <v>2050</v>
       </c>
       <c r="B2050">
-        <v>6.076212537461807</v>
+        <v>6.076212537461806</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>9.5297616570471</v>
+        <v>9.529761657047098</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>27.75262576997089</v>
+        <v>27.75262576997088</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>1.147056599637413</v>
+        <v>1.147056599637412</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>8.252235692418429</v>
+        <v>8.252235692418427</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>8.467496370315187</v>
+        <v>8.467496370315185</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>0.5606566198007</v>
+        <v>0.5606566198006999</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>4.832448356486923</v>
+        <v>4.832448356486922</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>6.967500180238689</v>
+        <v>6.967500180238688</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>7.519909781011459</v>
+        <v>7.519909781011458</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>21.33733004077791</v>
+        <v>21.3373300407779</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58199,7 +58199,7 @@
         <v>7232</v>
       </c>
       <c r="B7232">
-        <v>4.227373890066709</v>
+        <v>4.227373890066708</v>
       </c>
     </row>
     <row r="7233" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>5.749526250666005</v>
+        <v>5.749526250666004</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58559,7 +58559,7 @@
         <v>7277</v>
       </c>
       <c r="B7277">
-        <v>2.634395051554127</v>
+        <v>2.634395051554126</v>
       </c>
     </row>
     <row r="7278" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>3.240369246063031</v>
+        <v>3.24036924606303</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -60119,7 +60119,7 @@
         <v>7472</v>
       </c>
       <c r="B7472">
-        <v>4.387859590837662</v>
+        <v>4.387859590837661</v>
       </c>
     </row>
     <row r="7473" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>2.090806889045064</v>
+        <v>2.090806889045063</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>0.7438817024613865</v>
+        <v>0.7438817024613864</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>7.080830750889032</v>
+        <v>7.080830750889031</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>7.991549003529162</v>
+        <v>7.991549003529161</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>7.37023840156711</v>
+        <v>7.370238401567109</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>6.719796538362121</v>
+        <v>6.71979653836212</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>3.844505885159528</v>
+        <v>3.844505885159527</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>5.92196924981434</v>
+        <v>5.921969249814339</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>9.520266155394472</v>
+        <v>9.52026615539447</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62367,7 +62367,7 @@
         <v>7753</v>
       </c>
       <c r="B7753">
-        <v>8.49727238784318</v>
+        <v>8.497272387843179</v>
       </c>
     </row>
     <row r="7754" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>30.49990299348621</v>
+        <v>30.4999029934862</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>6.532699987280718</v>
+        <v>6.532699987280717</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62535,7 +62535,7 @@
         <v>7774</v>
       </c>
       <c r="B7774">
-        <v>18.65095297909642</v>
+        <v>18.65095297909641</v>
       </c>
     </row>
     <row r="7775" spans="1:2">
@@ -62647,7 +62647,7 @@
         <v>7788</v>
       </c>
       <c r="B7788">
-        <v>15.26668585305067</v>
+        <v>15.26668585305066</v>
       </c>
     </row>
     <row r="7789" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>20.09356585980303</v>
+        <v>20.09356585980302</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>7.420177706555004</v>
+        <v>7.420177706555003</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>6.071171715596831</v>
+        <v>6.07117171559683</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>6.615228791767752</v>
+        <v>6.615228791767751</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>27.36984568637531</v>
+        <v>27.3698456863753</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>5.258602953804385</v>
+        <v>5.258602953804384</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64247,7 +64247,7 @@
         <v>7988</v>
       </c>
       <c r="B7988">
-        <v>5.675965419962007</v>
+        <v>5.675965419962006</v>
       </c>
     </row>
     <row r="7989" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>12.44004499226586</v>
+        <v>12.44004499226585</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>9.872566850969276</v>
+        <v>9.872566850969273</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -66431,7 +66431,7 @@
         <v>8261</v>
       </c>
       <c r="B8261">
-        <v>7.05172879674996</v>
+        <v>7.051728796749959</v>
       </c>
     </row>
     <row r="8262" spans="1:2">
@@ -66599,7 +66599,7 @@
         <v>8282</v>
       </c>
       <c r="B8282">
-        <v>3.073553210856993</v>
+        <v>3.073553210856992</v>
       </c>
     </row>
     <row r="8283" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>5.330434665380281</v>
+        <v>5.33043466538028</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66631,7 +66631,7 @@
         <v>8286</v>
       </c>
       <c r="B8286">
-        <v>24.51975914249759</v>
+        <v>24.51975914249758</v>
       </c>
     </row>
     <row r="8287" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>6.967295030511627</v>
+        <v>6.967295030511626</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>8.154789572063532</v>
+        <v>8.15478957206353</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>5.974868572292713</v>
+        <v>5.974868572292712</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67295,7 +67295,7 @@
         <v>8369</v>
       </c>
       <c r="B8369">
-        <v>6.231716030575516</v>
+        <v>6.231716030575515</v>
       </c>
     </row>
     <row r="8370" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>13.42590665921876</v>
+        <v>13.42590665921875</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>19.01102005719575</v>
+        <v>19.01102005719574</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>2.367137709978073</v>
+        <v>2.367137709978072</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>0.8589296693982842</v>
+        <v>0.8589296693982841</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68791,7 +68791,7 @@
         <v>8556</v>
       </c>
       <c r="B8556">
-        <v>28.54031280058099</v>
+        <v>28.54031280058098</v>
       </c>
     </row>
     <row r="8557" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>27.90997561062817</v>
+        <v>27.90997561062816</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>25.09335777936558</v>
+        <v>25.09335777936557</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>20.02788864003902</v>
+        <v>20.02788864003901</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>44.30530734066754</v>
+        <v>44.30530734066753</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>8.810711863691489</v>
+        <v>8.810711863691488</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>8.147081803746739</v>
+        <v>8.147081803746737</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>18.23962777633522</v>
+        <v>18.23962777633521</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
